--- a/USB_Stress_test_kivy_app/Export_summary IO-04-001018.xlsx
+++ b/USB_Stress_test_kivy_app/Export_summary IO-04-001018.xlsx
@@ -399,7 +399,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>29.994</v>
+        <v>29.997</v>
       </c>
     </row>
   </sheetData>
